--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1980439.964850942</v>
+        <v>2077991.254428358</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18107006.33600774</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284537.005234243</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5547278.815749315</v>
+        <v>5865665.931207269</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>36.72507387644431</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>184.5077471891694</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +752,7 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647797</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>132.0818540436429</v>
+        <v>163.293878347428</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,25 +898,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>332.0164959768354</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>309.8030886940285</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1102,25 +1104,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>145.6280143194901</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>110.1684126278032</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.44211996154365</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>59.59474737021493</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1291,10 +1293,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1351,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>94.68621477474956</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>6.133574646794665</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>54.32836902135112</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170457</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,10 +1584,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>19.03170705004046</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1667,13 +1669,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170457</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038659</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2084,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773005</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2242,22 +2244,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>109.1426757626845</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.3431845617044</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -2479,10 +2481,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2530,10 +2532,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>242.0596273593616</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2716,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3.423392126084468</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800595</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2950,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>122.9229677259524</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>105.3480885970129</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.24351759540753</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886916</v>
+        <v>82.81535507800322</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>26.24351759540753</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009272</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092794</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981684</v>
+        <v>431.5506869773005</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157528</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>86.96305352381407</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886991</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765603</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639455</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842116</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825393997</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255039</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>134.6664524843062</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602942</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407902</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>81.01098805494593</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009272</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092794</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>144.3705138688409</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157528</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320844</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886991</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770218</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639455</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.5384173073509</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>26.24351759540843</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781978</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602942</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.8935188904399</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407902</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.618961230547</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D2" t="n">
-        <v>1179.522927011916</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9412527491843</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4337,13 +4339,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>366.7696217991695</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>180.3981599919276</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>176.1524403319851</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,40 +4397,40 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.3658326657497</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8041211489747</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8041211489747</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
         <v>604.8041211489747</v>
@@ -4522,16 +4524,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950848</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>1138.201517537139</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X4" t="n">
-        <v>1004.785503351641</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y4" t="n">
-        <v>777.3658326657497</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1553.638979748277</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.391236090724</v>
+        <v>1519.536910972104</v>
       </c>
       <c r="D5" t="n">
-        <v>890.8095618279922</v>
+        <v>1487.667530186953</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>1053.892785345248</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>740.960372522997</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>339.5625411462608</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>557.764910672644</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>557.764910672644</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>557.764910672644</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>557.764910672644</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530728</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847745</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1596.060975781571</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1595.245925233009</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1580.143865852723</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1575.898146192781</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>60.00734176206595</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>480.0602407069692</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>900.1131396518725</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593.9750599092082</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>593.9750599092082</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>428.0970671107308</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>428.0970671107308</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>341.7616130750586</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>341.7616130750586</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>593.9750599092082</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>593.9750599092082</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>593.9750599092082</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1072.260748364489</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>653.1182849437999</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>244.8321612434534</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>358.5019935678207</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>739.9048540962709</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>439.2128461748023</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C10" t="n">
-        <v>439.2128461748023</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D10" t="n">
-        <v>439.2128461748023</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
-        <v>439.2128461748023</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>262.5057921365585</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>453.9965675465116</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>874.0494664914149</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1293.718715717196</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1641.225609687538</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>726.6741060804052</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>631.0314648937895</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>631.0314648937895</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>631.0314648937895</v>
+        <v>1154.519992110234</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2502.373378149544</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2064.230905332967</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.321120507411</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.546375665707</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>766.6789460749143</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2811146981781</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>76.15096014139429</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>76.15096014139429</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.4056475943122</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1321.217149774912</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1321.217149774912</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M11" t="n">
-        <v>1321.217149774912</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>1321.217149774912</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2263.585281524667</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.895156358063</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3638.393942316658</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3807.548007069715</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3807.548007069715</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3807.548007069715</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3807.548007069715</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3807.548007069715</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3402.692552480748</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2983.550089060059</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2928.672948634452</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3227051326871</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.8662439693294</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7759551158827</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6555404428364</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.271702058998</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8866123251818</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.15096014139429</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2146333018519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7729582680642</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7729582680642</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7729582680642</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M12" t="n">
-        <v>1369.141090017818</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N12" t="n">
-        <v>1622.217943525864</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O12" t="n">
-        <v>1622.217943525864</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.217943525864</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.217943525864</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.390721620203</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.935284068586</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.756640399188</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.420093399156</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.302575461156</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9798211943496</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.1123854332295</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6266062124503</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.6447975590063</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>613.0830860422312</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>447.2050932437539</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>277.4470894944912</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>100.7400354562474</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>76.15096014139429</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>76.15096014139429</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.15096014139429</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7306453060842</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4890998772198</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6989816451808</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.182848826094</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.441651983738</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.11090120952</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.617795179862</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.810570044194</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.810570044194</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.56920134219</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.689754920646</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.256754173751</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.301246044181</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.274841630473</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.883086963885</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>977.4634162779935</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2120.199493288</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1682.057020471423</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1246.147235645868</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>812.3724908041627</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>384.5050612133704</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>365.281114698178</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.15096014139429</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.15096014139429</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.4056475943122</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.75593955249</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L14" t="n">
-        <v>2263.585281524667</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M14" t="n">
-        <v>2263.585281524667</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N14" t="n">
-        <v>2263.585281524667</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O14" t="n">
-        <v>2263.585281524667</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.895156358063</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q14" t="n">
-        <v>3638.393942316658</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>3807.548007069715</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3807.548007069715</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3587.480779942754</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3328.25847725977</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2965.641527193597</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2965.641527193597</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2546.499063772907</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2546.499063772907</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3227051326871</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.8662439693294</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7759551158827</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6555404428364</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.271702058998</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8866123251818</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.15096014139429</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2146333018519</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7729582680642</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7729582680642</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7729582680642</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1369.141090017818</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N15" t="n">
-        <v>1739.390721620203</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O15" t="n">
-        <v>1739.390721620203</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1739.390721620203</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1739.390721620203</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.390721620203</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.935284068586</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.756640399188</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.420093399156</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.302575461156</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9798211943496</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.1123854332295</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6266062124503</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>785.6447975590063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>613.0830860422312</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>447.2050932437539</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>277.4470894944912</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>100.7400354562474</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>76.15096014139429</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>76.15096014139429</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.15096014139429</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7306453060842</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4890998772198</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6989816451808</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.182848826094</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.441651983738</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.11090120952</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.617795179862</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.810570044194</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.810570044194</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.56920134219</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.689754920646</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.256754173751</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.301246044181</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.274841630473</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.883086963885</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>977.4634162779935</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,52 +5515,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>306.120802776629</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5980,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
         <v>102.6776296436396</v>
@@ -5990,31 +5992,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T23" t="n">
         <v>4809.322912595856</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>845.683004334921</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>673.1212928181459</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>673.1212928181459</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
         <v>673.1212928181459</v>
@@ -6136,7 +6138,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6178,19 +6180,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2069.294960949665</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1782.339452820096</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1510.313048406387</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1264.9212937398</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1037.501623053908</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6303,19 +6305,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1625.543999329491</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1625.543999329491</v>
       </c>
       <c r="O27" t="n">
         <v>1765.500601749588</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D28" t="n">
-        <v>617.7751448769883</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E28" t="n">
-        <v>448.0171411277256</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F28" t="n">
-        <v>271.3100870894817</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G28" t="n">
-        <v>105.7188121153094</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H28" t="n">
-        <v>105.7188121153094</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,46 +6466,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2627364873778</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L29" t="n">
-        <v>1632.322702740237</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740237</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176684</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
         <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580387</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
         <v>2955.199618136697</v>
@@ -6537,22 +6539,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>128.3245134312372</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M30" t="n">
-        <v>1327.049347523737</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C31" t="n">
-        <v>790.3368563937634</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D31" t="n">
-        <v>790.3368563937634</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E31" t="n">
-        <v>620.5788526445006</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>525.9458847132731</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1601.005850966132</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>4566.543227580387</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6786,7 +6788,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>843.1660143917137</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>843.1660143917137</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>677.2880215932364</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>507.5300178439736</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2591.090418174897</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2345.210971753353</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2066.777971006458</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1779.822462876888</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1507.79605846318</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1262.404303796593</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1034.984633110701</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.854933458241</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561829</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092984</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.1332516872508</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.3879391401689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.738231098347</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.798197351206</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.798197351206</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2582.520192247198</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3562.699858817504</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4391.009733650901</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4937.508519609495</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.133251687251</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.133251687251</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.133251687251</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>102.133251687251</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M36" t="n">
-        <v>102.133251687251</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N36" t="n">
-        <v>751.5714033477584</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.5453418998824</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>778.4004197559673</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>612.93921633035</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>443.5980019539472</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>267.3077372885634</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2695.552220073047</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2450.089563024362</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2172.073351650327</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1885.534632893617</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.950052559041</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.947171246009</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.798197351206</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247198</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817504</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650901</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.133251687251</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.6915766534634</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K39" t="n">
-        <v>426.6915766534634</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L39" t="n">
-        <v>426.6915766534634</v>
+        <v>634.526213836947</v>
       </c>
       <c r="M39" t="n">
-        <v>426.6915766534634</v>
+        <v>634.526213836947</v>
       </c>
       <c r="N39" t="n">
-        <v>426.6915766534634</v>
+        <v>634.526213836947</v>
       </c>
       <c r="O39" t="n">
-        <v>426.6915766534634</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.5453418998824</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>778.4004197559673</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>612.93921633035</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>443.5980019539472</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>267.3077372885634</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2695.552220073047</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2450.089563024362</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2172.073351650327</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1885.534632893617</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.950052559041</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.947171246009</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1897.892114346927</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1460.166430903211</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1024.673435450515</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>591.3154799816707</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>163.8648397637385</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>76.02337155786573</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.02337155786573</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.02337155786573</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.2780590107836</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.628350968962</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L41" t="n">
-        <v>2257.205852348239</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M41" t="n">
-        <v>2257.205852348239</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N41" t="n">
-        <v>2257.205852348239</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O41" t="n">
-        <v>2257.205852348239</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P41" t="n">
-        <v>3085.515727181635</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q41" t="n">
-        <v>3632.01451314023</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R41" t="n">
-        <v>3801.168577893287</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3717.933493449983</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3498.283055695882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3498.283055695882</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3136.082895002568</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2731.644229786462</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2731.644229786462</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2323.774895458975</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.1951165491586</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.7386553858008</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.6483665323541</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.5279518593078</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.1441134754694</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.7590237416533</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.02337155786573</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.0870447183233</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.6453696845356</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>426.6453696845356</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>426.6453696845356</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>426.6453696845356</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>426.6453696845356</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>426.6453696845356</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1198.524194404599</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1739.263133036675</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.263133036675</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.807695485058</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.629051815659</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.292504815628</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.174986877627</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.8522326108209</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>829.984796849701</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.4990176289217</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1152.164006559727</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>980.0190844158119</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>814.5578809901946</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>645.2166666137919</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>468.9264019484081</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>303.7519163470957</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>164.2665314103303</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.02337155786573</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>163.0115519868957</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>438.1785018223715</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>856.7968788546726</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1316.689241299926</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1759.35653972191</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.434284212032</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2527.349673446714</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2695.950943575386</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2674.949911653618</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2516.125332324475</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2380.098612643357</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2102.082401269322</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1815.543682512613</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1815.543682512613</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1570.568717218885</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y43" t="n">
-        <v>1343.565835905854</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2210.080859763877</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1772.35517632016</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1626.526374432442</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1193.168418963598</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>765.7177787456654</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>364.7367367417894</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>76.02337155786573</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
-        <v>76.02337155786573</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.2780590107836</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.628350968962</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2257.205852348239</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2257.205852348239</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2257.205852348239</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>2257.205852348239</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3085.515727181635</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3632.01451314023</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3801.168577893287</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3717.933493449983</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3717.933493449983</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3459.12798013986</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3459.12798013986</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3054.689314923754</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2635.963640875925</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2635.963640875925</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.1951165491586</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.7386553858008</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.6483665323541</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.5279518593078</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.1441134754694</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.7590237416533</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.02337155786573</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.0870447183233</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.6453696845356</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>426.6453696845356</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.351416310259</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.351416310259</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.351416310259</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.351416310259</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.351416310259</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.090354942335</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.263133036675</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.807695485058</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.629051815659</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.292504815628</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.174986877627</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.8522326108209</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>829.984796849701</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.4990176289217</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>924.4354617704967</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>752.2905396265817</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>586.8293362009645</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>417.4881218245617</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>241.197857159178</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>76.02337155786573</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>76.02337155786573</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.02337155786573</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>163.0115519868957</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>438.1785018223715</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>856.7968788546726</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1316.689241299926</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1759.35653972191</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.434284212032</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2527.349673446714</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2695.950943575386</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2695.950943575386</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2669.44233994366</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2423.979682894976</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2145.963471520941</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1859.424752764231</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.815137723383</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1342.840172429655</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1115.837291116624</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8052,22 +8054,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="M3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201044</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,10 +8218,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>512.457095033502</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,16 +8294,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>262.4693064538402</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8376,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>223.4729892007681</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191087</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8631,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,19 +8692,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>817.9914163440405</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.8870017674287</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>951.8870017674287</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>255.6331853616616</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>927.100345426441</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>951.8870017674287</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="N15" t="n">
-        <v>373.9895268710957</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,22 +9482,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>388.0185734358511</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9884,19 +9886,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,10 +9965,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>141.3703054748453</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>459.5978749662608</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10194,16 +10196,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10358,19 +10360,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>274.8417277288609</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>137.0929241373656</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10668,13 +10670,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>629.6711904040903</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>1024.042030119497</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373656</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>511.3148488946563</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>687.6461816022036</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L41" t="n">
-        <v>920.7853549285628</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>779.6755805253167</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11302,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>920.7853549285628</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.8153550780014</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>349.874893441992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>378.3521460129283</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>55.07653710780799</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>33.58904338006411</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>84.34995760698695</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>52.01701577190889</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>52.3008664179704</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>130.9928159404444</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>130.9928159404444</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>310.0081780600232</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320844</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770218</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.5384173073509</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>108.3415779938917</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>268.8935188904399</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>286.7675516293275</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765603</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825393997</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255039</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>130.9928159404434</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>471842.882079785</v>
+        <v>486638.9249069394</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>471842.882079785</v>
+        <v>489302.9849605192</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>416899.8709415407</v>
+        <v>515558.1795678521</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416899.8709415407</v>
+        <v>515558.1795678522</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>515558.1795678521</v>
+        <v>515558.1795678522</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>515558.1795678521</v>
+        <v>515558.1795678522</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>515558.1795678521</v>
+        <v>515558.1795678522</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>515558.1795678522</v>
+        <v>515558.1795678521</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>515659.0864924825</v>
+        <v>515558.1795678521</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>515659.0864924825</v>
+        <v>515558.1795678522</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>417000.777866171</v>
+        <v>515558.1795678522</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>417000.7778661712</v>
+        <v>515558.1795678522</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509339.9538958881</v>
+        <v>509339.9538958882</v>
       </c>
       <c r="C2" t="n">
         <v>509339.9538958882</v>
       </c>
       <c r="D2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="E2" t="n">
-        <v>404735.1475730013</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="F2" t="n">
-        <v>404735.1475730013</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="G2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304846</v>
       </c>
       <c r="H2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="I2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="J2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="K2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="L2" t="n">
+        <v>500514.7049304847</v>
+      </c>
+      <c r="M2" t="n">
         <v>500514.7049304848</v>
       </c>
-      <c r="M2" t="n">
-        <v>500738.9936869255</v>
-      </c>
       <c r="N2" t="n">
-        <v>500738.9936869254</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="O2" t="n">
-        <v>404959.4363294418</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="P2" t="n">
-        <v>404959.436329442</v>
+        <v>500514.7049304849</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998293</v>
       </c>
       <c r="E3" t="n">
-        <v>157527.1086670776</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>3.861628258540616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89454.08119078213</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877238</v>
       </c>
       <c r="L3" t="n">
-        <v>3.861628258540616e-11</v>
+        <v>9392.301726622443</v>
       </c>
       <c r="M3" t="n">
-        <v>131410.4758771946</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>179718.6327917067</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>76722.30389663212</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
-        <v>76722.30389663216</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875288</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="L4" t="n">
         <v>94878.44464875288</v>
       </c>
       <c r="M4" t="n">
-        <v>95206.69569251795</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>95206.69569251797</v>
+        <v>94878.4446487528</v>
       </c>
       <c r="O4" t="n">
-        <v>77050.55494039728</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="P4" t="n">
-        <v>77050.5549403973</v>
+        <v>94878.44464875291</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26472,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57874.72970745966</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57874.72970745966</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57812.45105910706</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57812.45105910706</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95630.7456617378</v>
+        <v>95630.74566173798</v>
       </c>
       <c r="C6" t="n">
-        <v>237822.0463214479</v>
+        <v>191077.339401163</v>
       </c>
       <c r="D6" t="n">
-        <v>237822.0463214479</v>
+        <v>249710.2985177045</v>
       </c>
       <c r="E6" t="n">
-        <v>112611.005301832</v>
+        <v>145562.9124548897</v>
       </c>
       <c r="F6" t="n">
-        <v>270138.1139689094</v>
+        <v>327918.0216759394</v>
       </c>
       <c r="G6" t="n">
-        <v>238463.9404851573</v>
+        <v>327918.0216759393</v>
       </c>
       <c r="H6" t="n">
         <v>327918.0216759394</v>
       </c>
       <c r="I6" t="n">
+        <v>327918.0216759395</v>
+      </c>
+      <c r="J6" t="n">
+        <v>216903.5563309491</v>
+      </c>
+      <c r="K6" t="n">
+        <v>274872.167037167</v>
+      </c>
+      <c r="L6" t="n">
+        <v>318525.7199493169</v>
+      </c>
+      <c r="M6" t="n">
+        <v>175717.8507379517</v>
+      </c>
+      <c r="N6" t="n">
+        <v>327918.0216759396</v>
+      </c>
+      <c r="O6" t="n">
         <v>327918.0216759394</v>
       </c>
-      <c r="J6" t="n">
-        <v>216903.5563309492</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="P6" t="n">
         <v>327918.0216759394</v>
-      </c>
-      <c r="L6" t="n">
-        <v>327918.0216759393</v>
-      </c>
-      <c r="M6" t="n">
-        <v>196465.862159773</v>
-      </c>
-      <c r="N6" t="n">
-        <v>327876.3380369676</v>
-      </c>
-      <c r="O6" t="n">
-        <v>270096.4303299375</v>
-      </c>
-      <c r="P6" t="n">
-        <v>270096.4303299376</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.8870017674287</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.8870017674287</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>950.2921444733216</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>950.2921444733216</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5911442473245</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.3735016173163</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
-        <v>525.996286953217</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
-        <v>527.5911442473245</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.3735016173163</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>394.8256131008556</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>230.443291597313</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>110.8559830762787</v>
+        <v>79.64395877249362</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>101.7445521115756</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>113.7856666008558</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>130.0206564199356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>159.1377277417682</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>331.594454818515</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>369.8422500230728</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27904,7 +27906,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>174.6199255948218</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>219.0118993322381</v>
       </c>
     </row>
     <row r="11">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791314459</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34772,22 +34774,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="M3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201044</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>512.457095033502</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,19 +35011,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>262.4693064538402</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>223.4729892007681</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191087</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>817.9914163440405</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.8870017674287</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>951.8870017674287</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>255.6331853616616</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>927.100345426441</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>951.8870017674287</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="N15" t="n">
-        <v>373.9895268710957</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35813,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889939</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>388.0185734358511</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,19 +36606,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,10 +36685,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>141.3703054748453</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>459.5978749662608</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,13 +37080,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>274.8417277288609</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>137.0929241373656</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>629.6711904040903</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>1024.042030119497</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373656</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>511.3148488946563</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>687.6461816022036</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L41" t="n">
-        <v>920.7853549285628</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>779.6755805253167</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.8668489182121</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.846845487173</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>920.7853549285628</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.8668489182121</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.846845487173</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2077991.254428358</v>
+        <v>2077466.072059326</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -724,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>184.5077471891694</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>30.80267200131484</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>51.25395846644548</v>
       </c>
       <c r="X4" t="n">
-        <v>163.293878347428</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>232.3488304648437</v>
       </c>
       <c r="F5" t="n">
-        <v>309.8030886940285</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>29.68613922827715</v>
       </c>
       <c r="U7" t="n">
-        <v>145.6280143194901</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1135,25 +1135,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>306.59997282228</v>
       </c>
       <c r="E8" t="n">
-        <v>59.59474737021493</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.133574646794665</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>108.5103196251634</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="15">
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>123.2901323038659</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2086,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773005</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2244,22 +2244,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>109.1426757626845</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>193.8659438253727</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800322</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3562,7 +3562,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3742,10 +3742,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773005</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3793,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>111.5098183264943</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3963,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.01098805494593</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,10 +4333,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
         <v>874.0494664914149</v>
@@ -4363,19 +4363,19 @@
         <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>771.6250763881362</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W2" t="n">
-        <v>366.7696217991695</v>
+        <v>625.9919244821526</v>
       </c>
       <c r="X2" t="n">
-        <v>180.3981599919276</v>
+        <v>206.8494610614633</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.1524403319851</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>437.0247332457074</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="C4" t="n">
         <v>940.4401176967148</v>
@@ -4488,52 +4488,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>1697.183430080417</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>940.4401176967148</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1553.638979748277</v>
+        <v>779.3838434627804</v>
       </c>
       <c r="C5" t="n">
-        <v>1519.536910972104</v>
+        <v>341.2413706462037</v>
       </c>
       <c r="D5" t="n">
-        <v>1487.667530186953</v>
+        <v>309.3719898610523</v>
       </c>
       <c r="E5" t="n">
-        <v>1053.892785345248</v>
+        <v>74.67620151272529</v>
       </c>
       <c r="F5" t="n">
-        <v>740.960372522997</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="G5" t="n">
-        <v>339.5625411462608</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947705</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>557.764910672644</v>
+        <v>557.7649106726449</v>
       </c>
       <c r="L5" t="n">
-        <v>557.764910672644</v>
+        <v>557.7649106726449</v>
       </c>
       <c r="M5" t="n">
-        <v>557.764910672644</v>
+        <v>557.7649106726449</v>
       </c>
       <c r="N5" t="n">
-        <v>557.764910672644</v>
+        <v>557.7649106726449</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717422</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762201</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720795</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657689</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.900228530728</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.677925847745</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="V5" t="n">
-        <v>1596.060975781571</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="W5" t="n">
-        <v>1595.245925233009</v>
+        <v>2033.112001068724</v>
       </c>
       <c r="X5" t="n">
-        <v>1580.143865852723</v>
+        <v>1613.969537648035</v>
       </c>
       <c r="Y5" t="n">
-        <v>1575.898146192781</v>
+        <v>1205.683413947688</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326458</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993464</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.155168760925</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201358</v>
+        <v>989.5883728917329</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>817.0266613749578</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>651.1486685764805</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>481.3906648272178</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>304.6836107889741</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="H7" t="n">
         <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179224</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S7" t="n">
-        <v>2500.201508179224</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T7" t="n">
-        <v>2500.201508179224</v>
+        <v>2491.633330253372</v>
       </c>
       <c r="U7" t="n">
-        <v>2353.102503816103</v>
+        <v>2213.200329506477</v>
       </c>
       <c r="V7" t="n">
-        <v>2066.146995686534</v>
+        <v>1926.244821376908</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1654.218416963199</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606237</v>
+        <v>1408.826662296612</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>1181.40699161072</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>852.5762146508135</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>818.474145874641</v>
       </c>
       <c r="D8" t="n">
-        <v>137.4249565943854</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1278.875785135721</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>962.7013733912472</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>790.1396618744722</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>624.2616690759949</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
         <v>624.2616690759949</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.519992110234</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5047,10 +5047,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423627</v>
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5232,19 +5232,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5281,49 +5281,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M14" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5460,16 +5460,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
         <v>1889.413325832886</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5521,46 +5521,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5761,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5892,19 +5892,19 @@
         <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>507.5300178439736</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>507.5300178439736</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5977,46 +5977,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>605.8694973157614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1680.929463568621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.977298779172</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
         <v>4809.322912595856</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>426.819165236992</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>1381.362214048096</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M24" t="n">
-        <v>1381.362214048096</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N24" t="n">
-        <v>1381.362214048096</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N26" t="n">
-        <v>3603.973621145286</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O26" t="n">
-        <v>4397.38916282733</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1625.543999329491</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1625.543999329491</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>525.9458847132731</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1601.005850966132</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>751.6989919312866</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>751.6989919312866</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7174,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7399,7 +7399,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7411,25 +7411,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3007.131363532228</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968675</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.042013538981</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q41" t="n">
         <v>5113.042013538981</v>
@@ -7456,7 +7456,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1454.96690046523</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7675,25 +7675,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>407.152590549595</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>512.457095033502</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664741958</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191087</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8534,10 +8534,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>288.735183296506</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>388.0185734358511</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>801.4298400828725</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>141.3703054748453</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>629.6711904040903</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>511.3148488946563</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>55.07653710780799</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>63.43016517136702</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>486638.9249069394</v>
+        <v>486638.9249069395</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>515558.1795678522</v>
+        <v>515558.1795678521</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>515558.1795678522</v>
+        <v>515558.1795678521</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>515558.1795678522</v>
+        <v>515558.1795678521</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>515558.1795678522</v>
+        <v>515558.1795678521</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>515558.1795678521</v>
+        <v>515558.1795678522</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="C2" t="n">
         <v>509339.9538958882</v>
@@ -26325,31 +26325,31 @@
         <v>500514.7049304848</v>
       </c>
       <c r="F2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="G2" t="n">
-        <v>500514.7049304846</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="H2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="I2" t="n">
-        <v>500514.7049304849</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="J2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="K2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="L2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="M2" t="n">
+        <v>500514.7049304849</v>
+      </c>
+      <c r="N2" t="n">
         <v>500514.7049304848</v>
-      </c>
-      <c r="N2" t="n">
-        <v>500514.7049304849</v>
       </c>
       <c r="O2" t="n">
         <v>500514.7049304848</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.767895016</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998293</v>
+        <v>11527.59554998279</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877238</v>
+        <v>53045.8546387725</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622443</v>
+        <v>9392.301726622272</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,46 +26420,46 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>179718.6327917067</v>
+        <v>179718.6327917066</v>
       </c>
       <c r="D4" t="n">
-        <v>173889.535266443</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875283</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875288</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.4446487528</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="O4" t="n">
+        <v>94878.44464875283</v>
+      </c>
+      <c r="P4" t="n">
         <v>94878.44464875286</v>
-      </c>
-      <c r="P4" t="n">
-        <v>94878.44464875291</v>
       </c>
     </row>
     <row r="5">
@@ -26472,25 +26472,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800256</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26499,7 +26499,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95630.74566173798</v>
+        <v>95630.74566173792</v>
       </c>
       <c r="C6" t="n">
-        <v>191077.339401163</v>
+        <v>191077.3394011629</v>
       </c>
       <c r="D6" t="n">
         <v>249710.2985177045</v>
       </c>
       <c r="E6" t="n">
-        <v>145562.9124548897</v>
+        <v>145539.688115507</v>
       </c>
       <c r="F6" t="n">
-        <v>327918.0216759394</v>
+        <v>327894.7973365569</v>
       </c>
       <c r="G6" t="n">
-        <v>327918.0216759393</v>
+        <v>327894.7973365568</v>
       </c>
       <c r="H6" t="n">
-        <v>327918.0216759394</v>
+        <v>327894.7973365568</v>
       </c>
       <c r="I6" t="n">
-        <v>327918.0216759395</v>
+        <v>327894.7973365567</v>
       </c>
       <c r="J6" t="n">
-        <v>216903.5563309491</v>
+        <v>216880.3319915665</v>
       </c>
       <c r="K6" t="n">
-        <v>274872.167037167</v>
+        <v>274848.9426977842</v>
       </c>
       <c r="L6" t="n">
-        <v>318525.7199493169</v>
+        <v>318502.4956099344</v>
       </c>
       <c r="M6" t="n">
-        <v>175717.8507379517</v>
+        <v>175694.6263985691</v>
       </c>
       <c r="N6" t="n">
-        <v>327918.0216759396</v>
+        <v>327894.7973365567</v>
       </c>
       <c r="O6" t="n">
-        <v>327918.0216759394</v>
+        <v>327894.7973365568</v>
       </c>
       <c r="P6" t="n">
-        <v>327918.0216759394</v>
+        <v>327894.7973365568</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939391</v>
+        <v>37.11037423939346</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939391</v>
+        <v>37.11037423939323</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939391</v>
+        <v>37.11037423939346</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>230.443291597313</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>373.4005904620283</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>218.0521819031259</v>
       </c>
       <c r="X4" t="n">
-        <v>79.64395877249362</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>197.088166928444</v>
       </c>
       <c r="F5" t="n">
-        <v>113.7856666008558</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>213.7345127290521</v>
       </c>
       <c r="U7" t="n">
-        <v>130.0206564199356</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>124.9507141550199</v>
       </c>
       <c r="E8" t="n">
-        <v>369.8422500230728</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.0118993322381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1.754117458135181e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -34701,13 +34701,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>407.152590549595</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>512.457095033502</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664741958</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,19 +35102,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191087</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35254,10 +35254,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35649,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>288.735183296506</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889939</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>388.0185734358511</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>801.4298400828725</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>141.3703054748453</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36855,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37092,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>629.6711904040903</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>511.3148488946563</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
